--- a/DataTarea_Exogenas.xlsx
+++ b/DataTarea_Exogenas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2663\Documents\GitHub\CUECOPolMon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\CUECOPolMon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3EA90A-D409-4EAB-8850-8E7FA75D5C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C44565-AFE0-46D2-9DF6-0A156EA3B39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA418475-98CD-40C4-9F54-B699117667D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{AA418475-98CD-40C4-9F54-B699117667D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Uvar" sheetId="1" r:id="rId1"/>
@@ -543,12 +543,12 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -608,7 +608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>45747</v>
       </c>
@@ -616,31 +616,31 @@
         <v>2</v>
       </c>
       <c r="C3" s="7">
-        <v>2.7060300000000002</v>
+        <v>2.2079178189177071</v>
       </c>
       <c r="D3" s="7">
-        <v>4.9516</v>
+        <v>2.987567660193188</v>
       </c>
       <c r="E3" s="7">
-        <v>-2.3027000000000002</v>
+        <v>-0.29804768116017311</v>
       </c>
       <c r="F3" s="7">
-        <v>1.4823</v>
+        <v>-0.12631907029203901</v>
       </c>
       <c r="G3" s="7">
-        <v>-3.8558699999999999</v>
+        <v>0</v>
       </c>
       <c r="H3" s="7">
-        <v>3.43126</v>
+        <v>1.384126466184451</v>
       </c>
       <c r="I3" s="7">
-        <v>-8.7099700000000002</v>
+        <v>1.192761245670694</v>
       </c>
       <c r="J3" s="9">
-        <v>0.62455399999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.66384956126651085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>45838</v>
       </c>
@@ -648,31 +648,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="7">
-        <v>2.8012999999999999</v>
+        <v>1.9757863828806661</v>
       </c>
       <c r="D4" s="7">
-        <v>0.71314100000000002</v>
+        <v>1.998146564230074</v>
       </c>
       <c r="E4" s="7">
-        <v>-1.0350999999999999</v>
+        <v>-0.1169241053191359</v>
       </c>
       <c r="F4" s="7">
-        <v>0.33011000000000001</v>
+        <v>-5.0679211001166097E-2</v>
       </c>
       <c r="G4" s="7">
-        <v>7.9647600000000001</v>
+        <v>0</v>
       </c>
       <c r="H4" s="7">
-        <v>2.2056200000000001</v>
+        <v>1.5930540365912851</v>
       </c>
       <c r="I4" s="7">
-        <v>6.9198399999999998</v>
+        <v>1.551268522509919</v>
       </c>
       <c r="J4" s="9">
-        <v>0.64335600000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.87667017433157601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>45930</v>
       </c>
@@ -680,31 +680,31 @@
         <v>2</v>
       </c>
       <c r="C5" s="7">
-        <v>3.0231499999999998</v>
+        <v>1.781166667338816</v>
       </c>
       <c r="D5" s="7">
-        <v>1.5725899999999999</v>
+        <v>2.0005524745618741</v>
       </c>
       <c r="E5" s="7">
-        <v>-0.97943999999999998</v>
+        <v>-4.5869326516697027E-2</v>
       </c>
       <c r="F5" s="7">
-        <v>3.6811999999999998E-2</v>
+        <v>-2.0332499453667861E-2</v>
       </c>
       <c r="G5" s="7">
-        <v>14.412599999999999</v>
+        <v>0</v>
       </c>
       <c r="H5" s="7">
-        <v>1.48559</v>
+        <v>1.6468334275879011</v>
       </c>
       <c r="I5" s="7">
-        <v>3.7610999999999999</v>
+        <v>1.636077549388578</v>
       </c>
       <c r="J5" s="9">
-        <v>0.78573999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.0455613233791039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>46022</v>
       </c>
@@ -712,31 +712,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="7">
-        <v>3.3023500000000001</v>
+        <v>1.6404176706355009</v>
       </c>
       <c r="D6" s="7">
-        <v>7.9414100000000003</v>
+        <v>2.034654816605586</v>
       </c>
       <c r="E6" s="7">
-        <v>-1.9058999999999999</v>
+        <v>-1.7994536792500251E-2</v>
       </c>
       <c r="F6" s="7">
-        <v>-3.6707999999999998</v>
+        <v>-8.1573987808115558E-3</v>
       </c>
       <c r="G6" s="7">
-        <v>10.8779</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
-        <v>1.6834100000000001</v>
+        <v>1.664769343392815</v>
       </c>
       <c r="I6" s="7">
-        <v>3.8362599999999998</v>
+        <v>1.6611821602318331</v>
       </c>
       <c r="J6" s="9">
-        <v>0.92148999999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.174829384708675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>46112</v>
       </c>
@@ -744,31 +744,31 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>3.5713499999999998</v>
+        <v>1.5465767365636569</v>
       </c>
       <c r="D7" s="7">
-        <v>6.8331999999999997</v>
+        <v>2.0588353026717501</v>
       </c>
       <c r="E7" s="7">
-        <v>-0.14904000000000001</v>
+        <v>-7.0592567836978487E-3</v>
       </c>
       <c r="F7" s="7">
-        <v>-0.22993</v>
+        <v>-3.2727483908615998E-3</v>
       </c>
       <c r="G7" s="7">
-        <v>9.3634900000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="7">
-        <v>3.2255199999999999</v>
+        <v>1.672242801530579</v>
       </c>
       <c r="I7" s="7">
-        <v>15.048500000000001</v>
+        <v>1.6707481099030259</v>
       </c>
       <c r="J7" s="9">
-        <v>1.06792</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.270894955175071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>46203</v>
       </c>
@@ -776,31 +776,31 @@
         <v>2</v>
       </c>
       <c r="C8" s="7">
-        <v>3.7646899999999999</v>
+        <v>1.4889754055932769</v>
       </c>
       <c r="D8" s="7">
-        <v>-0.72173799999999999</v>
+        <v>2.084969551106191</v>
       </c>
       <c r="E8" s="7">
-        <v>-1.1896</v>
+        <v>-2.769346436244666E-3</v>
       </c>
       <c r="F8" s="7">
-        <v>-0.28305999999999998</v>
+        <v>-1.3130266544136751E-3</v>
       </c>
       <c r="G8" s="7">
-        <v>-3.742</v>
+        <v>0</v>
       </c>
       <c r="H8" s="7">
-        <v>1.0749</v>
+        <v>1.6756188688010101</v>
       </c>
       <c r="I8" s="7">
-        <v>-2.2475999999999998</v>
+        <v>1.6749436553469239</v>
       </c>
       <c r="J8" s="9">
-        <v>1.20245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.340408717430285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>46295</v>
       </c>
@@ -808,31 +808,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="7">
-        <v>3.8740000000000001</v>
+        <v>1.4577046178661319</v>
       </c>
       <c r="D9" s="7">
-        <v>0.60247899999999999</v>
+        <v>2.103785520902214</v>
       </c>
       <c r="E9" s="7">
-        <v>-0.92374000000000001</v>
+        <v>-1.086414606938783E-3</v>
       </c>
       <c r="F9" s="7">
-        <v>-0.90076000000000001</v>
+        <v>-5.267862937507671E-4</v>
       </c>
       <c r="G9" s="7">
-        <v>22.5623</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7">
-        <v>1.4753000000000001</v>
+        <v>1.6771042002492009</v>
       </c>
       <c r="I9" s="7">
-        <v>0.60324699999999998</v>
+        <v>1.676807133959564</v>
       </c>
       <c r="J9" s="9">
-        <v>1.3150499999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.3894703557769941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>46387</v>
       </c>
@@ -840,28 +840,28 @@
         <v>2</v>
       </c>
       <c r="C10" s="7">
-        <v>3.8917799999999998</v>
+        <v>1.4446280052340581</v>
       </c>
       <c r="D10" s="7">
-        <v>-2.59483</v>
+        <v>2.1122113640225701</v>
       </c>
       <c r="E10" s="7">
-        <v>0.92237999999999998</v>
+        <v>-4.2620045030208458E-4</v>
       </c>
       <c r="F10" s="7">
-        <v>0.88175000000000003</v>
+        <v>-2.1134666105280801E-4</v>
       </c>
       <c r="G10" s="7">
-        <v>22.921199999999999</v>
+        <v>0</v>
       </c>
       <c r="H10" s="7">
-        <v>2.40571</v>
+        <v>1.6777659436680299</v>
       </c>
       <c r="I10" s="7">
-        <v>9.9548299999999994</v>
+        <v>1.6776335949842649</v>
       </c>
       <c r="J10" s="9">
-        <v>1.4682499999999998</v>
+        <v>1.423303583980273</v>
       </c>
     </row>
   </sheetData>
@@ -878,9 +878,9 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -888,22 +888,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>45717</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>45809</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>45901</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>45992</v>
       </c>
